--- a/_test/03/TestControl.xlsx
+++ b/_test/03/TestControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE33E690-BC4F-404C-AC63-DF1190BF0457}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3185EE-937F-4F66-8876-E426893268A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,18 +825,6 @@
     <t>3000,crossfade,rouka.jpg</t>
   </si>
   <si>
-    <t>661,33</t>
-  </si>
-  <si>
-    <t>870,36</t>
-  </si>
-  <si>
-    <t>1065,46</t>
-  </si>
-  <si>
-    <t>1276,41</t>
-  </si>
-  <si>
     <t>259,19</t>
   </si>
   <si>
@@ -929,21 +917,6 @@
     <t xml:space="preserve">/Intoroduction/
 (672,35)
 </t>
-  </si>
-  <si>
-    <t>519,288</t>
-  </si>
-  <si>
-    <t>740,294</t>
-  </si>
-  <si>
-    <t>941,291</t>
-  </si>
-  <si>
-    <t>1138,294</t>
-  </si>
-  <si>
-    <t>1343,295</t>
   </si>
   <si>
     <t>100079</t>
@@ -1001,21 +974,6 @@
 [font color="pink"]色を変更したり
 [resetfont][l][r]
 [ruby text=る]ル[ruby text=び]ビを[ruby text=ふ]振ることだって[ruby text=かん]簡[ruby text=たん]単にできます[l]</t>
-  </si>
-  <si>
-    <t>1553,300</t>
-  </si>
-  <si>
-    <t>532,339</t>
-  </si>
-  <si>
-    <t>741,340</t>
-  </si>
-  <si>
-    <t>955,339</t>
-  </si>
-  <si>
-    <t>1168,334</t>
   </si>
   <si>
     <t>100095</t>
@@ -1100,18 +1058,6 @@
     <t xml:space="preserve">/HALLWAY/
 (1306,160)
 </t>
-  </si>
-  <si>
-    <t>1370,335</t>
-  </si>
-  <si>
-    <t>1575,335</t>
-  </si>
-  <si>
-    <t>1767,333</t>
-  </si>
-  <si>
-    <t>1970,333</t>
   </si>
   <si>
     <t>100119</t>
@@ -1188,9 +1134,6 @@
   </si>
   <si>
     <t>675,107</t>
-  </si>
-  <si>
-    <t>971,370</t>
   </si>
   <si>
     <t>100145</t>
@@ -1498,9 +1441,6 @@
 </t>
   </si>
   <si>
-    <t>92,733</t>
-  </si>
-  <si>
     <t>47,110</t>
   </si>
   <si>
@@ -1508,45 +1448,6 @@
   </si>
   <si>
     <t>879,25</t>
-  </si>
-  <si>
-    <t>323,426</t>
-  </si>
-  <si>
-    <t>1176,346</t>
-  </si>
-  <si>
-    <t>1175,477</t>
-  </si>
-  <si>
-    <t>1418,420</t>
-  </si>
-  <si>
-    <t>1243,375</t>
-  </si>
-  <si>
-    <t>1441,377</t>
-  </si>
-  <si>
-    <t>1640,383</t>
-  </si>
-  <si>
-    <t>1843,385</t>
-  </si>
-  <si>
-    <t>417,464</t>
-  </si>
-  <si>
-    <t>1157,427</t>
-  </si>
-  <si>
-    <t>624,468</t>
-  </si>
-  <si>
-    <t>824,470</t>
-  </si>
-  <si>
-    <t>1005,470</t>
   </si>
   <si>
     <t>100255</t>
@@ -1633,24 +1534,6 @@
 </t>
   </si>
   <si>
-    <t>524,436</t>
-  </si>
-  <si>
-    <t>779,439</t>
-  </si>
-  <si>
-    <t>784,712</t>
-  </si>
-  <si>
-    <t>782,1135</t>
-  </si>
-  <si>
-    <t>792,1308</t>
-  </si>
-  <si>
-    <t>786,915</t>
-  </si>
-  <si>
     <t>100312</t>
   </si>
   <si>
@@ -1668,8 +1551,125 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/09/18 4:16:25
-; * pssgEditor version : 0.10.21046.no hash because of debug
+    <t>305,58</t>
+  </si>
+  <si>
+    <t>514,61</t>
+  </si>
+  <si>
+    <t>709,71</t>
+  </si>
+  <si>
+    <t>920,66</t>
+  </si>
+  <si>
+    <t>238,103</t>
+  </si>
+  <si>
+    <t>459,109</t>
+  </si>
+  <si>
+    <t>660,106</t>
+  </si>
+  <si>
+    <t>857,109</t>
+  </si>
+  <si>
+    <t>1062,110</t>
+  </si>
+  <si>
+    <t>1272,115</t>
+  </si>
+  <si>
+    <t>65,241</t>
+  </si>
+  <si>
+    <t>274,242</t>
+  </si>
+  <si>
+    <t>488,241</t>
+  </si>
+  <si>
+    <t>701,236</t>
+  </si>
+  <si>
+    <t>56,558</t>
+  </si>
+  <si>
+    <t>261,558</t>
+  </si>
+  <si>
+    <t>453,556</t>
+  </si>
+  <si>
+    <t>656,556</t>
+  </si>
+  <si>
+    <t>425,716</t>
+  </si>
+  <si>
+    <t>53,83</t>
+  </si>
+  <si>
+    <t>84,461</t>
+  </si>
+  <si>
+    <t>332,114</t>
+  </si>
+  <si>
+    <t>527,321</t>
+  </si>
+  <si>
+    <t>36,242</t>
+  </si>
+  <si>
+    <t>241,218</t>
+  </si>
+  <si>
+    <t>240,349</t>
+  </si>
+  <si>
+    <t>483,292</t>
+  </si>
+  <si>
+    <t>42,315</t>
+  </si>
+  <si>
+    <t>240,317</t>
+  </si>
+  <si>
+    <t>439,323</t>
+  </si>
+  <si>
+    <t>642,325</t>
+  </si>
+  <si>
+    <t>92,249</t>
+  </si>
+  <si>
+    <t>1031,409</t>
+  </si>
+  <si>
+    <t>296,253</t>
+  </si>
+  <si>
+    <t>496,255</t>
+  </si>
+  <si>
+    <t>677,255</t>
+  </si>
+  <si>
+    <t>414,780</t>
+  </si>
+  <si>
+    <t>414,946</t>
+  </si>
+  <si>
+    <t>393,545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/09/18 4:32:22
+; * pssgEditor version : 0.10.23684.aac2dc07e3f10fe3e6d9fff62ea25362f74a5f54
 psggfile=@@@
 TestControl.psgg
 @@@
@@ -1686,7 +1686,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Edited a state.
+Moved a state
 @@@
 target_pathdir=@@@
 /
@@ -1694,7 +1694,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":33,"y":21}},{"Key":"S_END","Value":{"x":92,"y":733}},{"Key":"S_0001","Value":{"x":792,"y":1308}},{"Key":"S_0002","Value":{"x":265,"y":717}},{"Key":"S_0003","Value":{"x":1221,"y":719}},{"Key":"S_0004","Value":{"x":528,"y":698}},{"Key":"S_0005","Value":{"x":781,"y":878}},{"Key":"S_0006","Value":{"x":165,"y":821}},{"Key":"S_0007","Value":{"x":1002,"y":878}},{"Key":"S_FIRSTSTEP","Value":{"x":47,"y":110}},{"Key":"S_TITLE","Value":{"x":84,"y":238}},{"Key":"S_SCENE_1","Value":{"x":428,"y":36}},{"Key":"S_SETUP_AKANE","Value":{"x":619,"y":31}},{"Key":"S_SERIF01","Value":{"x":661,"y":33}},{"Key":"S_SERIF02","Value":{"x":870,"y":36}},{"Key":"S_SERIF03","Value":{"x":1065,"y":46}},{"Key":"S_SHOW_AKANE","Value":{"x":1276,"y":41}},{"Key":"S_QUESTION","Value":{"x":879,"y":25}},{"Key":"S_INTREST","Value":{"x":928,"y":255}},{"Key":"S_INTREST1","Value":{"x":1145,"y":251}},{"Key":"S_INTREST2","Value":{"x":1352,"y":253}},{"Key":"S_INTREST3","Value":{"x":1569,"y":255}},{"Key":"S_INTREST4","Value":{"x":1780,"y":256}},{"Key":"S_INTREST5","Value":{"x":2000,"y":259}},{"Key":"S_INTREST6","Value":{"x":2213,"y":261}},{"Key":"S_INTREST7","Value":{"x":2425,"y":261}},{"Key":"S_INTREST8","Value":{"x":2656,"y":269}},{"Key":"S_INTREST9","Value":{"x":2866,"y":270}},{"Key":"S_INTREST10","Value":{"x":3089,"y":268}},{"Key":"S_INTREST11","Value":{"x":3303,"y":273}},{"Key":"S_INTREST12","Value":{"x":3551,"y":275}},{"Key":"S_INTREST13","Value":{"x":3780,"y":280}},{"Key":"S_INTREST14","Value":{"x":3986,"y":282}},{"Key":"S_INTREST15","Value":{"x":4196,"y":287}},{"Key":"S_INTREST16","Value":{"x":4395,"y":293}},{"Key":"S_INTREST17","Value":{"x":4596,"y":295}},{"Key":"S_INTREST18","Value":{"x":3815,"y":634}},{"Key":"S_INTREST19","Value":{"x":4025,"y":629}},{"Key":"S_HALWAY","Value":{"x":519,"y":288}},{"Key":"S_HALWAY1","Value":{"x":740,"y":294}},{"Key":"S_HALWAY2","Value":{"x":941,"y":291}},{"Key":"S_HALWAY3","Value":{"x":1138,"y":294}},{"Key":"S_HALWAY4","Value":{"x":1343,"y":295}},{"Key":"S_HALWAY5","Value":{"x":1553,"y":300}},{"Key":"S_FULLSCREEN","Value":{"x":532,"y":339}},{"Key":"S_FULLSCREEN1","Value":{"x":741,"y":340}},{"Key":"S_FULLSCREEN2","Value":{"x":955,"y":339}},{"Key":"S_FULLSCREEN3","Value":{"x":1168,"y":334}},{"Key":"S_FULLSCREEN4","Value":{"x":1370,"y":335}},{"Key":"S_FULLSCREEN5","Value":{"x":1575,"y":335}},{"Key":"S_FULLSCREEN6","Value":{"x":1767,"y":333}},{"Key":"S_FULLSCREEN7","Value":{"x":1970,"y":333}},{"Key":"S_MENUBTN","Value":{"x":723,"y":317}},{"Key":"S_MENUBTN1","Value":{"x":930,"y":330}},{"Key":"S_MENUBTN2","Value":{"x":1122,"y":330}},{"Key":"S_MUSIC","Value":{"x":971,"y":370}},{"Key":"____altnative_state____PREPARE","Value":{"x":452,"y":34}},{"Key":"____altnative_state____Intoroduction","Value":{"x":672,"y":35}},{"Key":"____altnative_state____Interest","Value":{"x":1101,"y":168}},{"Key":"____altnative_state____HALLWAY","Value":{"x":1306,"y":160}},{"Key":"____altnative_state____FULLSCREEN","Value":{"x":416,"y":323}},{"Key":"____altnative_state____MENUBTN","Value":{"x":613,"y":328}},{"Key":"S_0008","Value":{"x":1769,"y":598}},{"Key":"S_0009","Value":{"x":1175,"y":477}},{"Key":"S_PLAYMUSIC","Value":{"x":1176,"y":346}},{"Key":"S_NOPLAYMUSIC","Value":{"x":1175,"y":477}},{"Key":"S_MUSIC_END","Value":{"x":1418,"y":420}},{"Key":"____altnative_state____MUSIC","Value":{"x":851,"y":328}},{"Key":"S_SHOW_YAMATO","Value":{"x":1243,"y":375}},{"Key":"S_SHOW_YAMATO1","Value":{"x":1441,"y":377}},{"Key":"S_SHOW_YAMATO2","Value":{"x":1640,"y":383}},{"Key":"S_SHOW_YAMATO3","Value":{"x":1843,"y":385}},{"Key":"S_EPILOGUE","Value":{"x":417,"y":464}},{"Key":"____altnative_state____YAMATO","Value":{"x":1078,"y":331}},{"Key":"S_EPILOGUE1","Value":{"x":624,"y":468}},{"Key":"S_EPILOGUE2","Value":{"x":824,"y":470}},{"Key":"S_EPILOGUE3","Value":{"x":1005,"y":470}},{"Key":"S_EPILOGUE4","Value":{"x":417,"y":702}},{"Key":"S_EPILOGUE5","Value":{"x":649,"y":704}},{"Key":"S_BTNLINK","Value":{"x":323,"y":426}},{"Key":"S_BTNLINK1","Value":{"x":524,"y":436}},{"Key":"S_BL_INTRO","Value":{"x":779,"y":439}},{"Key":"S_BL_EXAMP","Value":{"x":784,"y":712}},{"Key":"____altnative_state____EPLOGUE","Value":{"x":1269,"y":327}},{"Key":"S_JUMP_TO_BTNLINK","Value":{"x":1157,"y":427}},{"Key":"S_BL_TECH","Value":{"x":786,"y":915}},{"Key":"S_BL_INFO","Value":{"x":782,"y":1135}},{"Key":"S_BL_TAG","Value":{"x":792,"y":1308}},{"Key":"____altnative_state____BTNLINK","Value":{"x":422,"y":502}}]},{"Key":"\/PREPARE\/","Value":[{"Key":"S_TITLE","Value":{"x":16,"y":17}},{"Key":"S_SCENE_1","Value":{"x":219,"y":16}},{"Key":"S_SETUP_AKANE","Value":{"x":30,"y":273}},{"Key":"S_DISP_MENU","Value":{"x":417,"y":16}},{"Key":"S_SETUP_MESSAGEWINDOW","Value":{"x":616,"y":13}},{"Key":"S_ADJUST_CHARAREGION","Value":{"x":810,"y":21}},{"Key":"S_SHOW_MSGWINDOW","Value":{"x":1002,"y":22}},{"Key":"S_SET_CHARNAMEAREA","Value":{"x":1201,"y":23}},{"Key":"S_AKANE_EMOTION","Value":{"x":211,"y":287}}]},{"Key":"\/Interest\/","Value":[{"Key":"S_QUESTION","Value":{"x":15,"y":5}},{"Key":"S_INTREST","Value":{"x":259,"y":19}},{"Key":"S_INTREST1","Value":{"x":474,"y":19}},{"Key":"S_INTREST2","Value":{"x":680,"y":19}},{"Key":"S_INTREST3","Value":{"x":888,"y":20}},{"Key":"S_INTREST4","Value":{"x":1105,"y":23}},{"Key":"S_INTREST5","Value":{"x":40,"y":297}},{"Key":"S_INTREST6","Value":{"x":268,"y":288}},{"Key":"S_INTREST7","Value":{"x":480,"y":288}},{"Key":"S_INTREST8","Value":{"x":711,"y":296}},{"Key":"S_INTREST9","Value":{"x":921,"y":297}},{"Key":"S_INTREST10","Value":{"x":1144,"y":295}},{"Key":"S_INTREST11","Value":{"x":40,"y":551}},{"Key":"S_INTREST12","Value":{"x":288,"y":553}},{"Key":"S_INTREST13","Value":{"x":517,"y":558}},{"Key":"S_INTREST14","Value":{"x":723,"y":560}},{"Key":"S_INTREST15","Value":{"x":933,"y":565}},{"Key":"S_INTREST16","Value":{"x":1132,"y":571}},{"Key":"S_INTREST17","Value":{"x":40,"y":787}},{"Key":"S_INTREST18","Value":{"x":240,"y":785}},{"Key":"S_INTREST19","Value":{"x":450,"y":780}},{"Key":"S_HALWAY","Value":{"x":712,"y":780}}]},{"Key":"\/Intoroduction\/","Value":[{"Key":"S_SERIF01","Value":{"x":661,"y":33}},{"Key":"S_SERIF02","Value":{"x":870,"y":36}},{"Key":"S_SERIF03","Value":{"x":1065,"y":46}},{"Key":"S_SHOW_AKANE","Value":{"x":1276,"y":41}},{"Key":"S_QUESTION","Value":{"x":1538,"y":41}},{"Key":"S_SETUP_YAMATO","Value":{"x":390,"y":87}}]},{"Key":"\/MENUBTN\/","Value":[{"Key":"S_FULLSCREEN7","Value":{"x":50,"y":100}},{"Key":"S_MENUBTN","Value":{"x":276,"y":94}},{"Key":"S_MENUBTN1","Value":{"x":483,"y":107}},{"Key":"S_MENUBTN2","Value":{"x":675,"y":107}},{"Key":"S_MUSIC","Value":{"x":937,"y":107}}]},{"Key":"\/MUSIC\/","Value":[{"Key":"S_MENUBTN2","Value":{"x":50,"y":100}},{"Key":"S_MUSIC","Value":{"x":971,"y":370}},{"Key":"S_PLAYMUSIC","Value":{"x":1176,"y":346}},{"Key":"S_NOPLAYMUSIC","Value":{"x":1175,"y":477}},{"Key":"S_MUSIC_END","Value":{"x":1418,"y":420}},{"Key":"S_0008","Value":{"x":1650,"y":414}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":33,"y":21}},{"Key":"S_END","Value":{"x":425,"y":716}},{"Key":"S_FIRSTSTEP","Value":{"x":47,"y":110}},{"Key":"S_TITLE","Value":{"x":84,"y":238}},{"Key":"S_SCENE_1","Value":{"x":428,"y":36}},{"Key":"S_SETUP_AKANE","Value":{"x":619,"y":31}},{"Key":"S_SERIF01","Value":{"x":661,"y":33}},{"Key":"S_SERIF02","Value":{"x":870,"y":36}},{"Key":"S_SERIF03","Value":{"x":1065,"y":46}},{"Key":"S_SHOW_AKANE","Value":{"x":1276,"y":41}},{"Key":"S_QUESTION","Value":{"x":879,"y":25}},{"Key":"S_INTREST","Value":{"x":928,"y":255}},{"Key":"S_INTREST1","Value":{"x":1145,"y":251}},{"Key":"S_INTREST2","Value":{"x":1352,"y":253}},{"Key":"S_INTREST3","Value":{"x":1569,"y":255}},{"Key":"S_INTREST4","Value":{"x":1780,"y":256}},{"Key":"S_INTREST5","Value":{"x":2000,"y":259}},{"Key":"S_INTREST6","Value":{"x":2213,"y":261}},{"Key":"S_INTREST7","Value":{"x":2425,"y":261}},{"Key":"S_INTREST8","Value":{"x":2656,"y":269}},{"Key":"S_INTREST9","Value":{"x":2866,"y":270}},{"Key":"S_INTREST10","Value":{"x":3089,"y":268}},{"Key":"S_INTREST11","Value":{"x":3303,"y":273}},{"Key":"S_INTREST12","Value":{"x":3551,"y":275}},{"Key":"S_INTREST13","Value":{"x":3780,"y":280}},{"Key":"S_INTREST14","Value":{"x":3986,"y":282}},{"Key":"S_INTREST15","Value":{"x":4196,"y":287}},{"Key":"S_INTREST16","Value":{"x":4395,"y":293}},{"Key":"S_INTREST17","Value":{"x":4596,"y":295}},{"Key":"S_INTREST18","Value":{"x":3815,"y":634}},{"Key":"S_INTREST19","Value":{"x":4025,"y":629}},{"Key":"S_HALWAY","Value":{"x":519,"y":288}},{"Key":"S_HALWAY1","Value":{"x":740,"y":294}},{"Key":"S_HALWAY2","Value":{"x":941,"y":291}},{"Key":"S_HALWAY3","Value":{"x":1138,"y":294}},{"Key":"S_HALWAY4","Value":{"x":1343,"y":295}},{"Key":"S_HALWAY5","Value":{"x":1553,"y":300}},{"Key":"S_FULLSCREEN","Value":{"x":532,"y":339}},{"Key":"S_FULLSCREEN1","Value":{"x":741,"y":340}},{"Key":"S_FULLSCREEN2","Value":{"x":955,"y":339}},{"Key":"S_FULLSCREEN3","Value":{"x":1168,"y":334}},{"Key":"S_FULLSCREEN4","Value":{"x":1370,"y":335}},{"Key":"S_FULLSCREEN5","Value":{"x":1575,"y":335}},{"Key":"S_FULLSCREEN6","Value":{"x":1767,"y":333}},{"Key":"S_FULLSCREEN7","Value":{"x":1970,"y":333}},{"Key":"S_MENUBTN","Value":{"x":723,"y":317}},{"Key":"S_MENUBTN1","Value":{"x":930,"y":330}},{"Key":"S_MENUBTN2","Value":{"x":1122,"y":330}},{"Key":"S_MUSIC","Value":{"x":971,"y":370}},{"Key":"S_PLAYMUSIC","Value":{"x":1176,"y":346}},{"Key":"S_NOPLAYMUSIC","Value":{"x":1175,"y":477}},{"Key":"S_MUSIC_END","Value":{"x":1418,"y":420}},{"Key":"S_SHOW_YAMATO","Value":{"x":1243,"y":375}},{"Key":"S_SHOW_YAMATO1","Value":{"x":1441,"y":377}},{"Key":"S_SHOW_YAMATO2","Value":{"x":1640,"y":383}},{"Key":"S_SHOW_YAMATO3","Value":{"x":1843,"y":385}},{"Key":"S_EPILOGUE","Value":{"x":417,"y":464}},{"Key":"S_EPILOGUE1","Value":{"x":624,"y":468}},{"Key":"S_EPILOGUE2","Value":{"x":824,"y":470}},{"Key":"S_EPILOGUE3","Value":{"x":1005,"y":470}},{"Key":"S_BTNLINK","Value":{"x":323,"y":426}},{"Key":"S_BTNLINK1","Value":{"x":524,"y":436}},{"Key":"S_BL_INTRO","Value":{"x":779,"y":439}},{"Key":"S_BL_EXAMP","Value":{"x":784,"y":712}},{"Key":"S_JUMP_TO_BTNLINK","Value":{"x":1157,"y":427}},{"Key":"S_BL_TECH","Value":{"x":786,"y":915}},{"Key":"S_BL_INFO","Value":{"x":782,"y":1135}},{"Key":"S_BL_TAG","Value":{"x":792,"y":1308}},{"Key":"____altnative_state____PREPARE","Value":{"x":452,"y":34}},{"Key":"____altnative_state____Intoroduction","Value":{"x":672,"y":35}},{"Key":"____altnative_state____Interest","Value":{"x":1101,"y":168}},{"Key":"____altnative_state____BTNLINK","Value":{"x":422,"y":502}},{"Key":"____altnative_state____HALLWAY","Value":{"x":1306,"y":160}},{"Key":"____altnative_state____FULLSCREEN","Value":{"x":416,"y":323}},{"Key":"____altnative_state____MENUBTN","Value":{"x":613,"y":328}},{"Key":"____altnative_state____MUSIC","Value":{"x":851,"y":328}},{"Key":"____altnative_state____YAMATO","Value":{"x":1078,"y":331}},{"Key":"____altnative_state____EPLOGUE","Value":{"x":1269,"y":327}}]},{"Key":"\/PREPARE\/","Value":[{"Key":"S_TITLE","Value":{"x":16,"y":17}},{"Key":"S_SCENE_1","Value":{"x":219,"y":16}},{"Key":"S_SETUP_AKANE","Value":{"x":30,"y":273}},{"Key":"S_DISP_MENU","Value":{"x":417,"y":16}},{"Key":"S_SETUP_MESSAGEWINDOW","Value":{"x":616,"y":13}},{"Key":"S_ADJUST_CHARAREGION","Value":{"x":810,"y":21}},{"Key":"S_SHOW_MSGWINDOW","Value":{"x":1002,"y":22}},{"Key":"S_SET_CHARNAMEAREA","Value":{"x":1201,"y":23}},{"Key":"S_AKANE_EMOTION","Value":{"x":211,"y":287}},{"Key":"S_SERIF01","Value":{"x":656,"y":316}},{"Key":"S_SETUP_YAMATO","Value":{"x":442,"y":288}}]},{"Key":"\/Interest\/","Value":[{"Key":"S_QUESTION","Value":{"x":15,"y":5}},{"Key":"S_INTREST","Value":{"x":259,"y":19}},{"Key":"S_INTREST1","Value":{"x":474,"y":19}},{"Key":"S_INTREST2","Value":{"x":680,"y":19}},{"Key":"S_INTREST3","Value":{"x":888,"y":20}},{"Key":"S_INTREST4","Value":{"x":1105,"y":23}},{"Key":"S_INTREST5","Value":{"x":40,"y":297}},{"Key":"S_INTREST6","Value":{"x":268,"y":288}},{"Key":"S_INTREST7","Value":{"x":480,"y":288}},{"Key":"S_INTREST8","Value":{"x":711,"y":296}},{"Key":"S_INTREST9","Value":{"x":921,"y":297}},{"Key":"S_INTREST10","Value":{"x":1144,"y":295}},{"Key":"S_INTREST11","Value":{"x":40,"y":551}},{"Key":"S_INTREST12","Value":{"x":288,"y":553}},{"Key":"S_INTREST13","Value":{"x":517,"y":558}},{"Key":"S_INTREST14","Value":{"x":723,"y":560}},{"Key":"S_INTREST15","Value":{"x":933,"y":565}},{"Key":"S_INTREST16","Value":{"x":1132,"y":571}},{"Key":"S_INTREST17","Value":{"x":40,"y":787}},{"Key":"S_INTREST18","Value":{"x":240,"y":785}},{"Key":"S_INTREST19","Value":{"x":450,"y":780}},{"Key":"S_HALWAY","Value":{"x":712,"y":780}}]},{"Key":"\/Intoroduction\/","Value":[{"Key":"S_SERIF01","Value":{"x":305,"y":58}},{"Key":"S_SERIF02","Value":{"x":514,"y":61}},{"Key":"S_SERIF03","Value":{"x":709,"y":71}},{"Key":"S_SHOW_AKANE","Value":{"x":920,"y":66}},{"Key":"S_QUESTION","Value":{"x":1182,"y":66}},{"Key":"S_SETUP_YAMATO","Value":{"x":34,"y":112}}]},{"Key":"\/MENUBTN\/","Value":[{"Key":"S_FULLSCREEN7","Value":{"x":50,"y":100}},{"Key":"S_MENUBTN","Value":{"x":276,"y":94}},{"Key":"S_MENUBTN1","Value":{"x":483,"y":107}},{"Key":"S_MENUBTN2","Value":{"x":675,"y":107}},{"Key":"S_MUSIC","Value":{"x":937,"y":107}}]},{"Key":"\/MUSIC\/","Value":[{"Key":"S_MENUBTN2","Value":{"x":50,"y":100}},{"Key":"S_MUSIC","Value":{"x":36,"y":242}},{"Key":"S_PLAYMUSIC","Value":{"x":241,"y":218}},{"Key":"S_NOPLAYMUSIC","Value":{"x":240,"y":349}},{"Key":"S_MUSIC_END","Value":{"x":483,"y":292}},{"Key":"S_SHOW_YAMATO","Value":{"x":745,"y":292}}]},{"Key":"\/HALLWAY\/","Value":[{"Key":"S_INTREST19","Value":{"x":50,"y":100}},{"Key":"S_HALWAY","Value":{"x":238,"y":103}},{"Key":"S_HALWAY1","Value":{"x":459,"y":109}},{"Key":"S_HALWAY2","Value":{"x":660,"y":106}},{"Key":"S_HALWAY3","Value":{"x":857,"y":109}},{"Key":"S_HALWAY4","Value":{"x":1062,"y":110}},{"Key":"S_HALWAY5","Value":{"x":1272,"y":115}},{"Key":"S_FULLSCREEN","Value":{"x":1534,"y":115}}]},{"Key":"\/FULLSCREEN\/","Value":[{"Key":"S_HALWAY5","Value":{"x":50,"y":100}},{"Key":"S_FULLSCREEN","Value":{"x":65,"y":241}},{"Key":"S_FULLSCREEN1","Value":{"x":274,"y":242}},{"Key":"S_FULLSCREEN2","Value":{"x":488,"y":241}},{"Key":"S_FULLSCREEN3","Value":{"x":701,"y":236}},{"Key":"S_FULLSCREEN4","Value":{"x":56,"y":558}},{"Key":"S_FULLSCREEN5","Value":{"x":261,"y":558}},{"Key":"S_FULLSCREEN6","Value":{"x":453,"y":556}},{"Key":"S_FULLSCREEN7","Value":{"x":656,"y":556}},{"Key":"S_MENUBTN","Value":{"x":918,"y":556}}]},{"Key":"\/YAMATO\/","Value":[{"Key":"S_MUSIC_END","Value":{"x":50,"y":100}},{"Key":"S_SHOW_YAMATO","Value":{"x":42,"y":315}},{"Key":"S_SHOW_YAMATO1","Value":{"x":240,"y":317}},{"Key":"S_SHOW_YAMATO2","Value":{"x":439,"y":323}},{"Key":"S_SHOW_YAMATO3","Value":{"x":642,"y":325}},{"Key":"S_EPILOGUE","Value":{"x":904,"y":325}}]},{"Key":"\/EPLOGUE\/","Value":[{"Key":"S_SHOW_YAMATO3","Value":{"x":50,"y":100}},{"Key":"S_EPILOGUE","Value":{"x":92,"y":249}},{"Key":"S_EPILOGUE1","Value":{"x":296,"y":253}},{"Key":"S_EPILOGUE2","Value":{"x":496,"y":255}},{"Key":"S_EPILOGUE3","Value":{"x":677,"y":255}},{"Key":"S_BTNLINK","Value":{"x":939,"y":255}}]},{"Key":"\/BTNLINK\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":46.66667,"y":13.3333244}},{"Key":"S_BTNLINK","Value":{"x":53,"y":83}},{"Key":"S_BTNLINK1","Value":{"x":84,"y":461}},{"Key":"S_BL_INTRO","Value":{"x":332,"y":114}},{"Key":"S_BL_EXAMP","Value":{"x":527,"y":321}},{"Key":"S_JUMP_TO_BTNLINK","Value":{"x":1031,"y":409}},{"Key":"S_BL_TECH","Value":{"x":393,"y":545}},{"Key":"S_BL_INFO","Value":{"x":414,"y":780}},{"Key":"S_BL_TAG","Value":{"x":414,"y":946}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -2608,7 +2608,7 @@
         <v>61</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>62</v>
@@ -2686,115 +2686,115 @@
         <v>157</v>
       </c>
       <c r="AX2" s="4" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="AY2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC2" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="AZ2" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="BD2" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="BE2" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="BF2" s="4" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="BG2" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="BH2" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="BI2" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="BJ2" s="4" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="BK2" s="4" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="BL2" s="4" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="BM2" s="4" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="BN2" s="4" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="BO2" s="4" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="BP2" s="4" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="BQ2" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="BR2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="BR2" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="BS2" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="BT2" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="BT2" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="BU2" s="4" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="BV2" s="4" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="BX2" s="4" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="BY2" s="4" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="BZ2" s="4" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="CA2" s="4" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="CB2" s="4" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="CC2" s="4" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="CD2" s="4" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="CE2" s="4" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="CF2" s="4" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="CG2" s="4" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="CH2" s="4" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="DO2" s="4" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:119" s="7" customFormat="1" ht="56.25">
@@ -2932,7 +2932,7 @@
         <v>92</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="Z5" s="9" t="s">
         <v>95</v>
@@ -3001,112 +3001,112 @@
         <v>157</v>
       </c>
       <c r="AW5" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AX5" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="AY5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="BA5" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB5" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="AX5" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="AY5" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="AZ5" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="BA5" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="BB5" s="9" t="s">
-        <v>204</v>
-      </c>
       <c r="BC5" s="9" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="BD5" s="9" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="BE5" s="9" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="BG5" s="9" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="BH5" s="9" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="BI5" s="9" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="BJ5" s="9" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="BK5" s="9" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="BL5" s="9" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="BM5" s="9" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="BN5" s="9" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="BO5" s="9" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="BP5" s="9" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="BQ5" s="9" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="BR5" s="9" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="BT5" s="9" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="BU5" s="9" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="BV5" s="9" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="BX5" s="9" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="BY5" s="9" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="BZ5" s="9" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="CA5" s="9" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="CB5" s="9" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="CC5" s="9" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="CD5" s="9" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="CE5" s="9" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="CF5" s="9" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="CG5" s="9" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="CH5" s="9" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="DO5" s="9" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:119" s="11" customFormat="1">
@@ -3255,106 +3255,106 @@
         <v>164</v>
       </c>
       <c r="AX7" s="11" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="AY7" s="11" t="s">
         <v>172</v>
       </c>
       <c r="AZ7" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="BA7" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="BB7" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="BC7" s="11" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="BD7" s="11" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="BE7" s="11" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="BG7" s="11" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="BH7" s="11" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="BI7" s="11" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="BJ7" s="11" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="BK7" s="11" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="BL7" s="11" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="BM7" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="BN7" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="BO7" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="BP7" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="BN7" s="11" t="s">
+      <c r="BQ7" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="BO7" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="BP7" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="BQ7" s="11" t="s">
-        <v>266</v>
-      </c>
       <c r="BR7" s="11" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="BT7" s="11" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="BU7" s="11" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="BV7" s="11" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="BX7" s="11" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="BY7" s="11" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="BZ7" s="11" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="CA7" s="11" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="CB7" s="11" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="CD7" s="11" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="CE7" s="11" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="CF7" s="11" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="CG7" s="11" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="CH7" s="11" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="DO7" s="11" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:119" s="11" customFormat="1" ht="131.25">
@@ -3484,7 +3484,7 @@
         <v>29</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:71" s="11" customFormat="1" ht="18.75" customHeight="1">
@@ -3506,16 +3506,16 @@
     <row r="22" spans="1:71" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="N22" s="11" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="BN22" s="11" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:71" s="11" customFormat="1" ht="18.75" customHeight="1">
@@ -3544,7 +3544,7 @@
         <v>108</v>
       </c>
       <c r="BF25" s="11" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:71" s="11" customFormat="1" ht="18.75" customHeight="1">
@@ -3569,19 +3569,19 @@
     <row r="28" spans="1:71" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="BS28" s="11" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:71" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -3694,16 +3694,16 @@
         <v>29</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="AC38" s="13" t="s">
         <v>137</v>
       </c>
       <c r="BF38" s="13" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="BS38" s="13" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:119" s="15" customFormat="1" ht="18.75" customHeight="1">
@@ -3764,7 +3764,7 @@
         <v>102</v>
       </c>
       <c r="S41" s="16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="T41" s="16" t="s">
         <v>102</v>
@@ -3785,187 +3785,187 @@
         <v>102</v>
       </c>
       <c r="Z41" s="16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AA41" s="16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AB41" s="16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AC41" s="16" t="s">
         <v>52</v>
       </c>
       <c r="AD41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AE41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AF41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AG41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AH41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AI41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AJ41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AK41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AL41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AM41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AN41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AO41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AP41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AQ41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AR41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AS41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AT41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AU41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AV41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AW41" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AX41" s="16" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="AY41" s="16" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="AZ41" s="16" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="BA41" s="16" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="BB41" s="16" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="BC41" s="16" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="BD41" s="16" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="BE41" s="16" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="BF41" s="16" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="BG41" s="16" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="BH41" s="16" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="BI41" s="16" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="BJ41" s="16" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="BK41" s="16" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="BL41" s="16" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="BM41" s="16" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="BN41" s="16" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="BO41" s="16" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="BP41" s="16" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="BQ41" s="16" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="BR41" s="16" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="BS41" s="16" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="BT41" s="16" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="BU41" s="16" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="BV41" s="16" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="BX41" s="16" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="BY41" s="16" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="BZ41" s="16" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="CA41" s="16" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="CB41" s="16" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="CC41" s="16" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="CD41" s="16" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="CE41" s="16" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="CF41" s="16" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="CG41" s="16" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="CH41" s="16" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="DO41" s="16" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:119" s="16" customFormat="1">
@@ -3976,7 +3976,7 @@
         <v>53</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>29</v>
@@ -4000,10 +4000,10 @@
         <v>29</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="N42" s="16" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="O42" s="16" t="s">
         <v>82</v>
@@ -4018,7 +4018,7 @@
         <v>84</v>
       </c>
       <c r="S42" s="16" t="s">
-        <v>176</v>
+        <v>330</v>
       </c>
       <c r="T42" s="16" t="s">
         <v>85</v>
@@ -4039,187 +4039,187 @@
         <v>90</v>
       </c>
       <c r="Z42" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA42" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB42" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC42" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD42" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE42" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="AA42" s="16" t="s">
+      <c r="AF42" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="AB42" s="16" t="s">
+      <c r="AG42" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="AC42" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="AD42" s="16" t="s">
+      <c r="AH42" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="AE42" s="16" t="s">
+      <c r="AI42" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="AF42" s="16" t="s">
+      <c r="AJ42" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="AG42" s="16" t="s">
+      <c r="AK42" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="AH42" s="16" t="s">
+      <c r="AL42" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="AI42" s="16" t="s">
+      <c r="AM42" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="AJ42" s="16" t="s">
+      <c r="AN42" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="AK42" s="16" t="s">
+      <c r="AO42" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="AL42" s="16" t="s">
+      <c r="AP42" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="AM42" s="16" t="s">
+      <c r="AQ42" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="AN42" s="16" t="s">
+      <c r="AR42" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="AO42" s="16" t="s">
+      <c r="AS42" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="AP42" s="16" t="s">
+      <c r="AT42" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="AQ42" s="16" t="s">
+      <c r="AU42" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="AR42" s="16" t="s">
+      <c r="AV42" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="AS42" s="16" t="s">
+      <c r="AW42" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="AT42" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="AU42" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV42" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="AW42" s="16" t="s">
-        <v>199</v>
-      </c>
       <c r="AX42" s="16" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="AY42" s="16" t="s">
-        <v>209</v>
+        <v>334</v>
       </c>
       <c r="AZ42" s="16" t="s">
-        <v>210</v>
+        <v>335</v>
       </c>
       <c r="BA42" s="16" t="s">
-        <v>211</v>
+        <v>336</v>
       </c>
       <c r="BB42" s="16" t="s">
-        <v>212</v>
+        <v>337</v>
       </c>
       <c r="BC42" s="16" t="s">
-        <v>213</v>
+        <v>338</v>
       </c>
       <c r="BD42" s="16" t="s">
-        <v>228</v>
+        <v>339</v>
       </c>
       <c r="BE42" s="16" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="BF42" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="BG42" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="BH42" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="BI42" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="BJ42" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="BK42" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="BL42" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="BM42" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="BN42" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="BO42" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="BP42" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BQ42" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="BR42" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="BS42" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="BT42" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="BU42" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="BV42" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="BX42" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="BY42" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="BG42" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="BH42" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="BI42" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="BJ42" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="BK42" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="BL42" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="BM42" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="BN42" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="BO42" s="16" t="s">
+      <c r="BZ42" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="BP42" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="BQ42" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="BR42" s="16" t="s">
+      <c r="CA42" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="BS42" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="BT42" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="BU42" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="BV42" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="BX42" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="BY42" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="BZ42" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="CA42" s="16" t="s">
-        <v>329</v>
-      </c>
       <c r="CB42" s="16" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="CC42" s="16" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="CD42" s="16" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="CE42" s="16" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="CF42" s="16" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="CG42" s="16" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="CH42" s="16" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="DO42" s="16" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:119" s="16" customFormat="1">
@@ -4365,115 +4365,115 @@
         <v>171</v>
       </c>
       <c r="AX43" s="16" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="AY43" s="16" t="s">
         <v>173</v>
       </c>
       <c r="AZ43" s="16" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="BA43" s="16" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="BB43" s="16" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="BC43" s="16" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="BD43" s="16" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="BE43" s="16" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="BF43" s="16" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="BG43" s="16" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="BH43" s="16" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="BI43" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ43" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="BJ43" s="16" t="s">
+      <c r="BK43" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="BL43" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="BM43" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="BN43" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="BO43" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="BP43" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="BQ43" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="BR43" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="BS43" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="BK43" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="BL43" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM43" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="BN43" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="BO43" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="BP43" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="BQ43" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="BR43" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="BS43" s="16" t="s">
-        <v>274</v>
-      </c>
       <c r="BT43" s="16" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="BU43" s="16" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="BV43" s="16" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="BX43" s="16" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="BY43" s="16" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="BZ43" s="16" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="CA43" s="16" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="CB43" s="16" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="CC43" s="16" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="CD43" s="16" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="CE43" s="16" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="CF43" s="16" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="CG43" s="16" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="CH43" s="16" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="DO43" s="16" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4555,7 +4555,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/_test/03/TestControl.xlsx
+++ b/_test/03/TestControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3185EE-937F-4F66-8876-E426893268A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AF491F-34DE-4C8E-8D49-F30FF2062BDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="371">
   <si>
     <t>thumbnail</t>
   </si>
@@ -317,12 +317,6 @@
 </t>
   </si>
   <si>
-    <t>0,0,800,640,A0</t>
-  </si>
-  <si>
-    <t>br_CLKVAL_A0(S_START);</t>
-  </si>
-  <si>
     <t>S_FIRSTSTEP</t>
   </si>
   <si>
@@ -1444,9 +1438,6 @@
     <t>47,110</t>
   </si>
   <si>
-    <t>84,238</t>
-  </si>
-  <si>
     <t>879,25</t>
   </si>
   <si>
@@ -1544,13 +1535,6 @@
 </t>
   </si>
   <si>
-    <t>100,320,title/button_load.png,load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">br_BTNVAL_START(S_SCENE_1);
-</t>
-  </si>
-  <si>
     <t>305,58</t>
   </si>
   <si>
@@ -1605,9 +1589,6 @@
     <t>656,556</t>
   </si>
   <si>
-    <t>425,716</t>
-  </si>
-  <si>
     <t>53,83</t>
   </si>
   <si>
@@ -1668,8 +1649,29 @@
     <t>393,545</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/09/18 4:32:22
-; * pssgEditor version : 0.10.23684.aac2dc07e3f10fe3e6d9fff62ea25362f74a5f54
+    <t>br_BTNVAL_START(S_SCENE_1);</t>
+  </si>
+  <si>
+    <t>S_DBGP</t>
+  </si>
+  <si>
+    <t>100333</t>
+  </si>
+  <si>
+    <t>100,320,title/button_load.png,title/button_load.png,load</t>
+  </si>
+  <si>
+    <t>548,175</t>
+  </si>
+  <si>
+    <t>1060,535</t>
+  </si>
+  <si>
+    <t>91,269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/09/18 21:08:11
+; * pssgEditor version : 0.10.25739.c6f4071be49ca5f48ac3e7852eab4a66c9d6cc99
 psggfile=@@@
 TestControl.psgg
 @@@
@@ -1694,7 +1696,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":33,"y":21}},{"Key":"S_END","Value":{"x":425,"y":716}},{"Key":"S_FIRSTSTEP","Value":{"x":47,"y":110}},{"Key":"S_TITLE","Value":{"x":84,"y":238}},{"Key":"S_SCENE_1","Value":{"x":428,"y":36}},{"Key":"S_SETUP_AKANE","Value":{"x":619,"y":31}},{"Key":"S_SERIF01","Value":{"x":661,"y":33}},{"Key":"S_SERIF02","Value":{"x":870,"y":36}},{"Key":"S_SERIF03","Value":{"x":1065,"y":46}},{"Key":"S_SHOW_AKANE","Value":{"x":1276,"y":41}},{"Key":"S_QUESTION","Value":{"x":879,"y":25}},{"Key":"S_INTREST","Value":{"x":928,"y":255}},{"Key":"S_INTREST1","Value":{"x":1145,"y":251}},{"Key":"S_INTREST2","Value":{"x":1352,"y":253}},{"Key":"S_INTREST3","Value":{"x":1569,"y":255}},{"Key":"S_INTREST4","Value":{"x":1780,"y":256}},{"Key":"S_INTREST5","Value":{"x":2000,"y":259}},{"Key":"S_INTREST6","Value":{"x":2213,"y":261}},{"Key":"S_INTREST7","Value":{"x":2425,"y":261}},{"Key":"S_INTREST8","Value":{"x":2656,"y":269}},{"Key":"S_INTREST9","Value":{"x":2866,"y":270}},{"Key":"S_INTREST10","Value":{"x":3089,"y":268}},{"Key":"S_INTREST11","Value":{"x":3303,"y":273}},{"Key":"S_INTREST12","Value":{"x":3551,"y":275}},{"Key":"S_INTREST13","Value":{"x":3780,"y":280}},{"Key":"S_INTREST14","Value":{"x":3986,"y":282}},{"Key":"S_INTREST15","Value":{"x":4196,"y":287}},{"Key":"S_INTREST16","Value":{"x":4395,"y":293}},{"Key":"S_INTREST17","Value":{"x":4596,"y":295}},{"Key":"S_INTREST18","Value":{"x":3815,"y":634}},{"Key":"S_INTREST19","Value":{"x":4025,"y":629}},{"Key":"S_HALWAY","Value":{"x":519,"y":288}},{"Key":"S_HALWAY1","Value":{"x":740,"y":294}},{"Key":"S_HALWAY2","Value":{"x":941,"y":291}},{"Key":"S_HALWAY3","Value":{"x":1138,"y":294}},{"Key":"S_HALWAY4","Value":{"x":1343,"y":295}},{"Key":"S_HALWAY5","Value":{"x":1553,"y":300}},{"Key":"S_FULLSCREEN","Value":{"x":532,"y":339}},{"Key":"S_FULLSCREEN1","Value":{"x":741,"y":340}},{"Key":"S_FULLSCREEN2","Value":{"x":955,"y":339}},{"Key":"S_FULLSCREEN3","Value":{"x":1168,"y":334}},{"Key":"S_FULLSCREEN4","Value":{"x":1370,"y":335}},{"Key":"S_FULLSCREEN5","Value":{"x":1575,"y":335}},{"Key":"S_FULLSCREEN6","Value":{"x":1767,"y":333}},{"Key":"S_FULLSCREEN7","Value":{"x":1970,"y":333}},{"Key":"S_MENUBTN","Value":{"x":723,"y":317}},{"Key":"S_MENUBTN1","Value":{"x":930,"y":330}},{"Key":"S_MENUBTN2","Value":{"x":1122,"y":330}},{"Key":"S_MUSIC","Value":{"x":971,"y":370}},{"Key":"S_PLAYMUSIC","Value":{"x":1176,"y":346}},{"Key":"S_NOPLAYMUSIC","Value":{"x":1175,"y":477}},{"Key":"S_MUSIC_END","Value":{"x":1418,"y":420}},{"Key":"S_SHOW_YAMATO","Value":{"x":1243,"y":375}},{"Key":"S_SHOW_YAMATO1","Value":{"x":1441,"y":377}},{"Key":"S_SHOW_YAMATO2","Value":{"x":1640,"y":383}},{"Key":"S_SHOW_YAMATO3","Value":{"x":1843,"y":385}},{"Key":"S_EPILOGUE","Value":{"x":417,"y":464}},{"Key":"S_EPILOGUE1","Value":{"x":624,"y":468}},{"Key":"S_EPILOGUE2","Value":{"x":824,"y":470}},{"Key":"S_EPILOGUE3","Value":{"x":1005,"y":470}},{"Key":"S_BTNLINK","Value":{"x":323,"y":426}},{"Key":"S_BTNLINK1","Value":{"x":524,"y":436}},{"Key":"S_BL_INTRO","Value":{"x":779,"y":439}},{"Key":"S_BL_EXAMP","Value":{"x":784,"y":712}},{"Key":"S_JUMP_TO_BTNLINK","Value":{"x":1157,"y":427}},{"Key":"S_BL_TECH","Value":{"x":786,"y":915}},{"Key":"S_BL_INFO","Value":{"x":782,"y":1135}},{"Key":"S_BL_TAG","Value":{"x":792,"y":1308}},{"Key":"____altnative_state____PREPARE","Value":{"x":452,"y":34}},{"Key":"____altnative_state____Intoroduction","Value":{"x":672,"y":35}},{"Key":"____altnative_state____Interest","Value":{"x":1101,"y":168}},{"Key":"____altnative_state____BTNLINK","Value":{"x":422,"y":502}},{"Key":"____altnative_state____HALLWAY","Value":{"x":1306,"y":160}},{"Key":"____altnative_state____FULLSCREEN","Value":{"x":416,"y":323}},{"Key":"____altnative_state____MENUBTN","Value":{"x":613,"y":328}},{"Key":"____altnative_state____MUSIC","Value":{"x":851,"y":328}},{"Key":"____altnative_state____YAMATO","Value":{"x":1078,"y":331}},{"Key":"____altnative_state____EPLOGUE","Value":{"x":1269,"y":327}}]},{"Key":"\/PREPARE\/","Value":[{"Key":"S_TITLE","Value":{"x":16,"y":17}},{"Key":"S_SCENE_1","Value":{"x":219,"y":16}},{"Key":"S_SETUP_AKANE","Value":{"x":30,"y":273}},{"Key":"S_DISP_MENU","Value":{"x":417,"y":16}},{"Key":"S_SETUP_MESSAGEWINDOW","Value":{"x":616,"y":13}},{"Key":"S_ADJUST_CHARAREGION","Value":{"x":810,"y":21}},{"Key":"S_SHOW_MSGWINDOW","Value":{"x":1002,"y":22}},{"Key":"S_SET_CHARNAMEAREA","Value":{"x":1201,"y":23}},{"Key":"S_AKANE_EMOTION","Value":{"x":211,"y":287}},{"Key":"S_SERIF01","Value":{"x":656,"y":316}},{"Key":"S_SETUP_YAMATO","Value":{"x":442,"y":288}}]},{"Key":"\/Interest\/","Value":[{"Key":"S_QUESTION","Value":{"x":15,"y":5}},{"Key":"S_INTREST","Value":{"x":259,"y":19}},{"Key":"S_INTREST1","Value":{"x":474,"y":19}},{"Key":"S_INTREST2","Value":{"x":680,"y":19}},{"Key":"S_INTREST3","Value":{"x":888,"y":20}},{"Key":"S_INTREST4","Value":{"x":1105,"y":23}},{"Key":"S_INTREST5","Value":{"x":40,"y":297}},{"Key":"S_INTREST6","Value":{"x":268,"y":288}},{"Key":"S_INTREST7","Value":{"x":480,"y":288}},{"Key":"S_INTREST8","Value":{"x":711,"y":296}},{"Key":"S_INTREST9","Value":{"x":921,"y":297}},{"Key":"S_INTREST10","Value":{"x":1144,"y":295}},{"Key":"S_INTREST11","Value":{"x":40,"y":551}},{"Key":"S_INTREST12","Value":{"x":288,"y":553}},{"Key":"S_INTREST13","Value":{"x":517,"y":558}},{"Key":"S_INTREST14","Value":{"x":723,"y":560}},{"Key":"S_INTREST15","Value":{"x":933,"y":565}},{"Key":"S_INTREST16","Value":{"x":1132,"y":571}},{"Key":"S_INTREST17","Value":{"x":40,"y":787}},{"Key":"S_INTREST18","Value":{"x":240,"y":785}},{"Key":"S_INTREST19","Value":{"x":450,"y":780}},{"Key":"S_HALWAY","Value":{"x":712,"y":780}}]},{"Key":"\/Intoroduction\/","Value":[{"Key":"S_SERIF01","Value":{"x":305,"y":58}},{"Key":"S_SERIF02","Value":{"x":514,"y":61}},{"Key":"S_SERIF03","Value":{"x":709,"y":71}},{"Key":"S_SHOW_AKANE","Value":{"x":920,"y":66}},{"Key":"S_QUESTION","Value":{"x":1182,"y":66}},{"Key":"S_SETUP_YAMATO","Value":{"x":34,"y":112}}]},{"Key":"\/MENUBTN\/","Value":[{"Key":"S_FULLSCREEN7","Value":{"x":50,"y":100}},{"Key":"S_MENUBTN","Value":{"x":276,"y":94}},{"Key":"S_MENUBTN1","Value":{"x":483,"y":107}},{"Key":"S_MENUBTN2","Value":{"x":675,"y":107}},{"Key":"S_MUSIC","Value":{"x":937,"y":107}}]},{"Key":"\/MUSIC\/","Value":[{"Key":"S_MENUBTN2","Value":{"x":50,"y":100}},{"Key":"S_MUSIC","Value":{"x":36,"y":242}},{"Key":"S_PLAYMUSIC","Value":{"x":241,"y":218}},{"Key":"S_NOPLAYMUSIC","Value":{"x":240,"y":349}},{"Key":"S_MUSIC_END","Value":{"x":483,"y":292}},{"Key":"S_SHOW_YAMATO","Value":{"x":745,"y":292}}]},{"Key":"\/HALLWAY\/","Value":[{"Key":"S_INTREST19","Value":{"x":50,"y":100}},{"Key":"S_HALWAY","Value":{"x":238,"y":103}},{"Key":"S_HALWAY1","Value":{"x":459,"y":109}},{"Key":"S_HALWAY2","Value":{"x":660,"y":106}},{"Key":"S_HALWAY3","Value":{"x":857,"y":109}},{"Key":"S_HALWAY4","Value":{"x":1062,"y":110}},{"Key":"S_HALWAY5","Value":{"x":1272,"y":115}},{"Key":"S_FULLSCREEN","Value":{"x":1534,"y":115}}]},{"Key":"\/FULLSCREEN\/","Value":[{"Key":"S_HALWAY5","Value":{"x":50,"y":100}},{"Key":"S_FULLSCREEN","Value":{"x":65,"y":241}},{"Key":"S_FULLSCREEN1","Value":{"x":274,"y":242}},{"Key":"S_FULLSCREEN2","Value":{"x":488,"y":241}},{"Key":"S_FULLSCREEN3","Value":{"x":701,"y":236}},{"Key":"S_FULLSCREEN4","Value":{"x":56,"y":558}},{"Key":"S_FULLSCREEN5","Value":{"x":261,"y":558}},{"Key":"S_FULLSCREEN6","Value":{"x":453,"y":556}},{"Key":"S_FULLSCREEN7","Value":{"x":656,"y":556}},{"Key":"S_MENUBTN","Value":{"x":918,"y":556}}]},{"Key":"\/YAMATO\/","Value":[{"Key":"S_MUSIC_END","Value":{"x":50,"y":100}},{"Key":"S_SHOW_YAMATO","Value":{"x":42,"y":315}},{"Key":"S_SHOW_YAMATO1","Value":{"x":240,"y":317}},{"Key":"S_SHOW_YAMATO2","Value":{"x":439,"y":323}},{"Key":"S_SHOW_YAMATO3","Value":{"x":642,"y":325}},{"Key":"S_EPILOGUE","Value":{"x":904,"y":325}}]},{"Key":"\/EPLOGUE\/","Value":[{"Key":"S_SHOW_YAMATO3","Value":{"x":50,"y":100}},{"Key":"S_EPILOGUE","Value":{"x":92,"y":249}},{"Key":"S_EPILOGUE1","Value":{"x":296,"y":253}},{"Key":"S_EPILOGUE2","Value":{"x":496,"y":255}},{"Key":"S_EPILOGUE3","Value":{"x":677,"y":255}},{"Key":"S_BTNLINK","Value":{"x":939,"y":255}}]},{"Key":"\/BTNLINK\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":46.66667,"y":13.3333244}},{"Key":"S_BTNLINK","Value":{"x":53,"y":83}},{"Key":"S_BTNLINK1","Value":{"x":84,"y":461}},{"Key":"S_BL_INTRO","Value":{"x":332,"y":114}},{"Key":"S_BL_EXAMP","Value":{"x":527,"y":321}},{"Key":"S_JUMP_TO_BTNLINK","Value":{"x":1031,"y":409}},{"Key":"S_BL_TECH","Value":{"x":393,"y":545}},{"Key":"S_BL_INFO","Value":{"x":414,"y":780}},{"Key":"S_BL_TAG","Value":{"x":414,"y":946}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":33,"y":21}},{"Key":"S_END","Value":{"x":1060,"y":535}},{"Key":"S_FIRSTSTEP","Value":{"x":47,"y":110}},{"Key":"S_TITLE","Value":{"x":91,"y":269}},{"Key":"S_SCENE_1","Value":{"x":428,"y":36}},{"Key":"S_SETUP_AKANE","Value":{"x":619,"y":31}},{"Key":"S_SERIF01","Value":{"x":661,"y":33}},{"Key":"S_SERIF02","Value":{"x":870,"y":36}},{"Key":"S_SERIF03","Value":{"x":1065,"y":46}},{"Key":"S_SHOW_AKANE","Value":{"x":1276,"y":41}},{"Key":"S_QUESTION","Value":{"x":879,"y":25}},{"Key":"S_INTREST","Value":{"x":928,"y":255}},{"Key":"S_INTREST1","Value":{"x":1145,"y":251}},{"Key":"S_INTREST2","Value":{"x":1352,"y":253}},{"Key":"S_INTREST3","Value":{"x":1569,"y":255}},{"Key":"S_INTREST4","Value":{"x":1780,"y":256}},{"Key":"S_INTREST5","Value":{"x":2000,"y":259}},{"Key":"S_INTREST6","Value":{"x":2213,"y":261}},{"Key":"S_INTREST7","Value":{"x":2425,"y":261}},{"Key":"S_INTREST8","Value":{"x":2656,"y":269}},{"Key":"S_INTREST9","Value":{"x":2866,"y":270}},{"Key":"S_INTREST10","Value":{"x":3089,"y":268}},{"Key":"S_INTREST11","Value":{"x":3303,"y":273}},{"Key":"S_INTREST12","Value":{"x":3551,"y":275}},{"Key":"S_INTREST13","Value":{"x":3780,"y":280}},{"Key":"S_INTREST14","Value":{"x":3986,"y":282}},{"Key":"S_INTREST15","Value":{"x":4196,"y":287}},{"Key":"S_INTREST16","Value":{"x":4395,"y":293}},{"Key":"S_INTREST17","Value":{"x":4596,"y":295}},{"Key":"S_INTREST18","Value":{"x":3815,"y":634}},{"Key":"S_INTREST19","Value":{"x":4025,"y":629}},{"Key":"S_HALWAY","Value":{"x":519,"y":288}},{"Key":"S_HALWAY1","Value":{"x":740,"y":294}},{"Key":"S_HALWAY2","Value":{"x":941,"y":291}},{"Key":"S_HALWAY3","Value":{"x":1138,"y":294}},{"Key":"S_HALWAY4","Value":{"x":1343,"y":295}},{"Key":"S_HALWAY5","Value":{"x":1553,"y":300}},{"Key":"S_FULLSCREEN","Value":{"x":532,"y":339}},{"Key":"S_FULLSCREEN1","Value":{"x":741,"y":340}},{"Key":"S_FULLSCREEN2","Value":{"x":955,"y":339}},{"Key":"S_FULLSCREEN3","Value":{"x":1168,"y":334}},{"Key":"S_FULLSCREEN4","Value":{"x":1370,"y":335}},{"Key":"S_FULLSCREEN5","Value":{"x":1575,"y":335}},{"Key":"S_FULLSCREEN6","Value":{"x":1767,"y":333}},{"Key":"S_FULLSCREEN7","Value":{"x":1970,"y":333}},{"Key":"S_MENUBTN","Value":{"x":723,"y":317}},{"Key":"S_MENUBTN1","Value":{"x":930,"y":330}},{"Key":"S_MENUBTN2","Value":{"x":1122,"y":330}},{"Key":"S_MUSIC","Value":{"x":971,"y":370}},{"Key":"S_PLAYMUSIC","Value":{"x":1176,"y":346}},{"Key":"S_NOPLAYMUSIC","Value":{"x":1175,"y":477}},{"Key":"S_MUSIC_END","Value":{"x":1418,"y":420}},{"Key":"S_SHOW_YAMATO","Value":{"x":1243,"y":375}},{"Key":"S_SHOW_YAMATO1","Value":{"x":1441,"y":377}},{"Key":"S_SHOW_YAMATO2","Value":{"x":1640,"y":383}},{"Key":"S_SHOW_YAMATO3","Value":{"x":1843,"y":385}},{"Key":"S_EPILOGUE","Value":{"x":417,"y":464}},{"Key":"S_EPILOGUE1","Value":{"x":624,"y":468}},{"Key":"S_EPILOGUE2","Value":{"x":824,"y":470}},{"Key":"S_EPILOGUE3","Value":{"x":1005,"y":470}},{"Key":"S_BTNLINK","Value":{"x":323,"y":426}},{"Key":"S_BTNLINK1","Value":{"x":524,"y":436}},{"Key":"S_BL_INTRO","Value":{"x":779,"y":439}},{"Key":"S_BL_EXAMP","Value":{"x":784,"y":712}},{"Key":"S_JUMP_TO_BTNLINK","Value":{"x":1157,"y":427}},{"Key":"S_BL_TECH","Value":{"x":786,"y":915}},{"Key":"S_BL_INFO","Value":{"x":782,"y":1135}},{"Key":"S_BL_TAG","Value":{"x":792,"y":1308}},{"Key":"S_DBGP","Value":{"x":548,"y":175}},{"Key":"____altnative_state____PREPARE","Value":{"x":452,"y":34}},{"Key":"____altnative_state____Intoroduction","Value":{"x":672,"y":35}},{"Key":"____altnative_state____Interest","Value":{"x":1101,"y":168}},{"Key":"____altnative_state____BTNLINK","Value":{"x":422,"y":502}},{"Key":"____altnative_state____HALLWAY","Value":{"x":1306,"y":160}},{"Key":"____altnative_state____FULLSCREEN","Value":{"x":416,"y":323}},{"Key":"____altnative_state____MENUBTN","Value":{"x":613,"y":328}},{"Key":"____altnative_state____MUSIC","Value":{"x":851,"y":328}},{"Key":"____altnative_state____YAMATO","Value":{"x":1078,"y":331}},{"Key":"____altnative_state____EPLOGUE","Value":{"x":1269,"y":327}}]},{"Key":"\/PREPARE\/","Value":[{"Key":"S_TITLE","Value":{"x":16,"y":17}},{"Key":"S_SCENE_1","Value":{"x":219,"y":16}},{"Key":"S_SETUP_AKANE","Value":{"x":30,"y":273}},{"Key":"S_DISP_MENU","Value":{"x":417,"y":16}},{"Key":"S_SETUP_MESSAGEWINDOW","Value":{"x":616,"y":13}},{"Key":"S_ADJUST_CHARAREGION","Value":{"x":810,"y":21}},{"Key":"S_SHOW_MSGWINDOW","Value":{"x":1002,"y":22}},{"Key":"S_SET_CHARNAMEAREA","Value":{"x":1201,"y":23}},{"Key":"S_AKANE_EMOTION","Value":{"x":211,"y":287}},{"Key":"S_SERIF01","Value":{"x":656,"y":316}},{"Key":"S_SETUP_YAMATO","Value":{"x":442,"y":288}},{"Key":"S_MUSIC","Value":{"x":704,"y":288}},{"Key":"S_DBGP","Value":{"x":704,"y":288}}]},{"Key":"\/Interest\/","Value":[{"Key":"S_QUESTION","Value":{"x":15,"y":5}},{"Key":"S_INTREST","Value":{"x":259,"y":19}},{"Key":"S_INTREST1","Value":{"x":474,"y":19}},{"Key":"S_INTREST2","Value":{"x":680,"y":19}},{"Key":"S_INTREST3","Value":{"x":888,"y":20}},{"Key":"S_INTREST4","Value":{"x":1105,"y":23}},{"Key":"S_INTREST5","Value":{"x":40,"y":297}},{"Key":"S_INTREST6","Value":{"x":268,"y":288}},{"Key":"S_INTREST7","Value":{"x":480,"y":288}},{"Key":"S_INTREST8","Value":{"x":711,"y":296}},{"Key":"S_INTREST9","Value":{"x":921,"y":297}},{"Key":"S_INTREST10","Value":{"x":1144,"y":295}},{"Key":"S_INTREST11","Value":{"x":40,"y":551}},{"Key":"S_INTREST12","Value":{"x":288,"y":553}},{"Key":"S_INTREST13","Value":{"x":517,"y":558}},{"Key":"S_INTREST14","Value":{"x":723,"y":560}},{"Key":"S_INTREST15","Value":{"x":933,"y":565}},{"Key":"S_INTREST16","Value":{"x":1132,"y":571}},{"Key":"S_INTREST17","Value":{"x":40,"y":787}},{"Key":"S_INTREST18","Value":{"x":240,"y":785}},{"Key":"S_INTREST19","Value":{"x":450,"y":780}},{"Key":"S_HALWAY","Value":{"x":712,"y":780}}]},{"Key":"\/Intoroduction\/","Value":[{"Key":"S_SERIF01","Value":{"x":305,"y":58}},{"Key":"S_SERIF02","Value":{"x":514,"y":61}},{"Key":"S_SERIF03","Value":{"x":709,"y":71}},{"Key":"S_SHOW_AKANE","Value":{"x":920,"y":66}},{"Key":"S_QUESTION","Value":{"x":1182,"y":66}},{"Key":"S_SETUP_YAMATO","Value":{"x":34,"y":112}}]},{"Key":"\/MENUBTN\/","Value":[{"Key":"S_FULLSCREEN7","Value":{"x":50,"y":100}},{"Key":"S_MENUBTN","Value":{"x":276,"y":94}},{"Key":"S_MENUBTN1","Value":{"x":483,"y":107}},{"Key":"S_MENUBTN2","Value":{"x":675,"y":107}},{"Key":"S_MUSIC","Value":{"x":937,"y":107}}]},{"Key":"\/MUSIC\/","Value":[{"Key":"S_MENUBTN2","Value":{"x":50,"y":100}},{"Key":"S_MUSIC","Value":{"x":36,"y":242}},{"Key":"S_PLAYMUSIC","Value":{"x":241,"y":218}},{"Key":"S_NOPLAYMUSIC","Value":{"x":240,"y":349}},{"Key":"S_MUSIC_END","Value":{"x":483,"y":292}},{"Key":"S_SHOW_YAMATO","Value":{"x":745,"y":292}}]},{"Key":"\/HALLWAY\/","Value":[{"Key":"S_INTREST19","Value":{"x":50,"y":100}},{"Key":"S_HALWAY","Value":{"x":238,"y":103}},{"Key":"S_HALWAY1","Value":{"x":459,"y":109}},{"Key":"S_HALWAY2","Value":{"x":660,"y":106}},{"Key":"S_HALWAY3","Value":{"x":857,"y":109}},{"Key":"S_HALWAY4","Value":{"x":1062,"y":110}},{"Key":"S_HALWAY5","Value":{"x":1272,"y":115}},{"Key":"S_FULLSCREEN","Value":{"x":1534,"y":115}}]},{"Key":"\/FULLSCREEN\/","Value":[{"Key":"S_HALWAY5","Value":{"x":50,"y":100}},{"Key":"S_FULLSCREEN","Value":{"x":65,"y":241}},{"Key":"S_FULLSCREEN1","Value":{"x":274,"y":242}},{"Key":"S_FULLSCREEN2","Value":{"x":488,"y":241}},{"Key":"S_FULLSCREEN3","Value":{"x":701,"y":236}},{"Key":"S_FULLSCREEN4","Value":{"x":56,"y":558}},{"Key":"S_FULLSCREEN5","Value":{"x":261,"y":558}},{"Key":"S_FULLSCREEN6","Value":{"x":453,"y":556}},{"Key":"S_FULLSCREEN7","Value":{"x":656,"y":556}},{"Key":"S_MENUBTN","Value":{"x":918,"y":556}}]},{"Key":"\/YAMATO\/","Value":[{"Key":"S_MUSIC_END","Value":{"x":50,"y":100}},{"Key":"S_SHOW_YAMATO","Value":{"x":42,"y":315}},{"Key":"S_SHOW_YAMATO1","Value":{"x":240,"y":317}},{"Key":"S_SHOW_YAMATO2","Value":{"x":439,"y":323}},{"Key":"S_SHOW_YAMATO3","Value":{"x":642,"y":325}},{"Key":"S_EPILOGUE","Value":{"x":904,"y":325}}]},{"Key":"\/EPLOGUE\/","Value":[{"Key":"S_SHOW_YAMATO3","Value":{"x":50,"y":100}},{"Key":"S_EPILOGUE","Value":{"x":92,"y":249}},{"Key":"S_EPILOGUE1","Value":{"x":296,"y":253}},{"Key":"S_EPILOGUE2","Value":{"x":496,"y":255}},{"Key":"S_EPILOGUE3","Value":{"x":677,"y":255}},{"Key":"S_BTNLINK","Value":{"x":939,"y":255}}]},{"Key":"\/BTNLINK\/","Value":[{"Key":"S_EPILOGUE3","Value":{"x":46.66667,"y":13.3333244}},{"Key":"S_BTNLINK","Value":{"x":53,"y":83}},{"Key":"S_BTNLINK1","Value":{"x":84,"y":461}},{"Key":"S_BL_INTRO","Value":{"x":332,"y":114}},{"Key":"S_BL_EXAMP","Value":{"x":527,"y":321}},{"Key":"S_JUMP_TO_BTNLINK","Value":{"x":1031,"y":409}},{"Key":"S_BL_TECH","Value":{"x":393,"y":545}},{"Key":"S_BL_INFO","Value":{"x":414,"y":780}},{"Key":"S_BL_TAG","Value":{"x":414,"y":946}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -2535,6 +2537,9 @@
       <c r="CH1" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="CJ1" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="DO1" s="2" t="s">
         <v>24</v>
       </c>
@@ -2575,226 +2580,229 @@
         <v>29</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="BP2" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="Y2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BQ2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="BR2" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="BG2" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BH2" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="BN2" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="BO2" s="4" t="s">
+      <c r="BS2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="BT2" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BP2" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="BQ2" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="BR2" s="4" t="s">
+      <c r="BU2" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="BS2" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="BT2" s="4" t="s">
+      <c r="BV2" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="BU2" s="4" t="s">
+      <c r="BX2" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="BV2" s="4" t="s">
+      <c r="BY2" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="BX2" s="4" t="s">
+      <c r="BZ2" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="BY2" s="4" t="s">
+      <c r="CA2" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="BZ2" s="4" t="s">
+      <c r="CB2" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="CA2" s="4" t="s">
+      <c r="CC2" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="CB2" s="4" t="s">
+      <c r="CD2" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="CC2" s="4" t="s">
+      <c r="CE2" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="CD2" s="4" t="s">
+      <c r="CF2" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CE2" s="4" t="s">
+      <c r="CG2" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="DO2" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="CF2" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="CG2" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="CH2" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="DO2" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:119" s="7" customFormat="1" ht="56.25">
@@ -2829,31 +2837,31 @@
         <v>29</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:119" s="7" customFormat="1">
@@ -2874,7 +2882,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
@@ -2899,214 +2907,217 @@
         <v>29</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>29</v>
       </c>
       <c r="R5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="V5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="T5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y5" s="9" t="s">
+      <c r="AB5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP5" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR5" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS5" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT5" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AW5" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX5" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AY5" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="BB5" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD5" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="BE5" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="BG5" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="BH5" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI5" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ5" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="BK5" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="BM5" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="BN5" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="Z5" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL5" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM5" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN5" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO5" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP5" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ5" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR5" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS5" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AT5" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU5" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AV5" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW5" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AX5" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="AY5" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="AZ5" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="BA5" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="BB5" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="BC5" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="BD5" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="BE5" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="BG5" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="BH5" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="BI5" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="BJ5" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="BK5" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="BL5" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="BM5" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="BN5" s="9" t="s">
+      <c r="BO5" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="BP5" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="BQ5" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="BO5" s="9" t="s">
+      <c r="BR5" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="BT5" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="BU5" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="BV5" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="BX5" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="BY5" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ5" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="CA5" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="CB5" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="CC5" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD5" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="BP5" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="BQ5" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="BR5" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="BT5" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="BU5" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="BV5" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="BX5" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="BY5" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="BZ5" s="9" t="s">
+      <c r="CE5" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="CF5" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="CG5" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="CA5" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="CB5" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="CC5" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="CD5" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="CE5" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="CF5" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="CG5" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="CH5" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
+      </c>
+      <c r="CJ5" s="9" t="s">
+        <v>244</v>
       </c>
       <c r="DO5" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:119" s="11" customFormat="1">
@@ -3150,211 +3161,211 @@
         <v>29</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="U7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="T7" s="11" t="s">
+      <c r="V7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="W7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="V7" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="X7" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Y7" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Z7" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB7" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AA7" s="11" t="s">
+      <c r="AC7" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AB7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC7" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="AD7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF7" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AG7" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="AF7" s="11" t="s">
+      <c r="AH7" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="AG7" s="11" t="s">
+      <c r="AI7" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="AH7" s="11" t="s">
+      <c r="AJ7" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="AI7" s="11" t="s">
+      <c r="AK7" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="AJ7" s="11" t="s">
+      <c r="AL7" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="AK7" s="11" t="s">
+      <c r="AM7" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="AL7" s="11" t="s">
+      <c r="AN7" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="AM7" s="11" t="s">
+      <c r="AO7" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AN7" s="11" t="s">
+      <c r="AP7" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="AO7" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AP7" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="AQ7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR7" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS7" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="AR7" s="11" t="s">
+      <c r="AT7" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="AS7" s="11" t="s">
+      <c r="AU7" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AT7" s="11" t="s">
+      <c r="AV7" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="AU7" s="11" t="s">
+      <c r="AW7" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AV7" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="AW7" s="11" t="s">
-        <v>164</v>
-      </c>
       <c r="AX7" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="AY7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AZ7" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA7" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB7" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="BC7" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="BD7" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE7" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="BG7" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="BH7" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="BI7" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ7" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="BK7" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="BL7" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="BM7" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="BN7" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="BO7" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="BP7" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="BQ7" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="BR7" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="AY7" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="AZ7" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA7" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="BB7" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="BC7" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="BD7" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="BE7" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="BG7" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="BH7" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="BI7" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="BJ7" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK7" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="BL7" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="BM7" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="BN7" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="BO7" s="11" t="s">
+      <c r="BT7" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="BP7" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="BQ7" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="BR7" s="11" t="s">
+      <c r="BU7" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="BT7" s="11" t="s">
+      <c r="BV7" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="BU7" s="11" t="s">
+      <c r="BX7" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="BV7" s="11" t="s">
+      <c r="BY7" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="BX7" s="11" t="s">
+      <c r="BZ7" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="BY7" s="11" t="s">
+      <c r="CA7" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="BZ7" s="11" t="s">
+      <c r="CB7" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="CA7" s="11" t="s">
+      <c r="CD7" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="CB7" s="11" t="s">
+      <c r="CE7" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="CD7" s="11" t="s">
+      <c r="CF7" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="CE7" s="11" t="s">
+      <c r="CG7" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="CH7" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="DO7" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="CF7" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="CG7" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="CH7" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="DO7" s="11" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:119" s="11" customFormat="1" ht="131.25">
@@ -3366,7 +3377,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="W8" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:119" s="11" customFormat="1" ht="18.75" customHeight="1">
@@ -3397,13 +3408,13 @@
     <row r="12" spans="1:119" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="Y12" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:119" s="11" customFormat="1" ht="18.75" customHeight="1">
@@ -3440,13 +3451,13 @@
     <row r="15" spans="1:119" s="11" customFormat="1" ht="37.5">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="AY15" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:119" s="11" customFormat="1" ht="18.75" customHeight="1">
@@ -3459,7 +3470,7 @@
     <row r="17" spans="1:71" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -3484,7 +3495,7 @@
         <v>29</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:71" s="11" customFormat="1" ht="18.75" customHeight="1">
@@ -3506,16 +3517,16 @@
     <row r="22" spans="1:71" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="N22" s="11" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="BN22" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:71" s="11" customFormat="1" ht="18.75" customHeight="1">
@@ -3535,28 +3546,28 @@
     <row r="25" spans="1:71" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="AC25" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="BF25" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:71" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="AC26" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:71" s="11" customFormat="1" ht="18.75" customHeight="1">
@@ -3569,19 +3580,19 @@
     <row r="28" spans="1:71" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="BS28" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:71" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -3602,7 +3613,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>29</v>
@@ -3685,7 +3696,7 @@
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>29</v>
@@ -3694,16 +3705,16 @@
         <v>29</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="AC38" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="BF38" s="13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="BS38" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:119" s="15" customFormat="1" ht="18.75" customHeight="1">
@@ -3719,10 +3730,10 @@
         <v>18</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>29</v>
@@ -3746,226 +3757,229 @@
         <v>29</v>
       </c>
       <c r="M41" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N41" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P41" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="16" t="s">
         <v>29</v>
       </c>
       <c r="R41" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S41" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="T41" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U41" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V41" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="W41" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X41" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA41" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AB41" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AC41" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AE41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AH41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AI41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AJ41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AK41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AL41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AM41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AN41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AO41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AP41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AQ41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AR41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AS41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AT41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AU41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AV41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AW41" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AX41" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AY41" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AZ41" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BA41" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BB41" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BC41" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BD41" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BE41" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="BF41" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="BG41" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="BH41" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="BI41" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="BJ41" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="BK41" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="BL41" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="BM41" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="BN41" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="BO41" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="BP41" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="BQ41" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="BR41" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="BS41" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="BF41" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="BG41" s="16" t="s">
+      <c r="BT41" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="BH41" s="16" t="s">
+      <c r="BU41" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="BI41" s="16" t="s">
+      <c r="BV41" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="BJ41" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="BK41" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="BL41" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="BM41" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="BN41" s="16" t="s">
+      <c r="BX41" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="BO41" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="BP41" s="16" t="s">
+      <c r="BY41" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="BQ41" s="16" t="s">
+      <c r="BZ41" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="BR41" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="BS41" s="16" t="s">
+      <c r="CA41" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="CB41" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="BT41" s="16" t="s">
+      <c r="CC41" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="CD41" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="BU41" s="16" t="s">
+      <c r="CE41" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="BV41" s="16" t="s">
+      <c r="CF41" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="BX41" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="BY41" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="BZ41" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="CA41" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="CB41" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="CC41" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="CD41" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="CE41" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="CF41" s="16" t="s">
-        <v>298</v>
-      </c>
       <c r="CG41" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="CH41" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
+      </c>
+      <c r="CJ41" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="DO41" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:119" s="16" customFormat="1">
@@ -3973,253 +3987,256 @@
         <v>19</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E42" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="N42" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="O42" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R42" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="S42" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="T42" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="U42" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="W42" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="X42" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y42" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z42" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA42" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB42" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC42" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD42" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE42" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF42" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG42" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH42" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI42" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ42" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK42" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL42" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM42" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN42" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO42" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP42" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ42" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR42" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS42" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT42" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AU42" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="AV42" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="AW42" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX42" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="AY42" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="AZ42" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="BA42" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="BB42" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="BC42" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="BD42" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="BE42" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="BF42" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="BG42" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="BH42" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="BI42" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="BJ42" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="BK42" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="BL42" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="BM42" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="BN42" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="BO42" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="BP42" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="BQ42" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="BR42" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="BS42" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="BT42" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K42" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L42" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M42" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="N42" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="O42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P42" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q42" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R42" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="S42" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="T42" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="U42" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="V42" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="W42" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="X42" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y42" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z42" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA42" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="AB42" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="AC42" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD42" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE42" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF42" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG42" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH42" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI42" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ42" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK42" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL42" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="AM42" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN42" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AO42" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="AP42" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="AQ42" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR42" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="AS42" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="AT42" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="AU42" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="AV42" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="AW42" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="AX42" s="16" t="s">
+      <c r="BU42" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="AY42" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="AZ42" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="BA42" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="BB42" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="BC42" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="BD42" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="BE42" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="BF42" s="16" t="s">
+      <c r="BV42" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="BG42" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="BH42" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="BI42" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="BJ42" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="BK42" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="BL42" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="BM42" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="BN42" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="BO42" s="16" t="s">
+      <c r="BX42" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="BP42" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="BQ42" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="BR42" s="16" t="s">
+      <c r="BY42" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="BS42" s="16" t="s">
+      <c r="BZ42" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="BT42" s="16" t="s">
+      <c r="CA42" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="BU42" s="16" t="s">
+      <c r="CB42" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="BV42" s="16" t="s">
+      <c r="CC42" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="BX42" s="16" t="s">
+      <c r="CD42" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="BY42" s="16" t="s">
+      <c r="CE42" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="BZ42" s="16" t="s">
+      <c r="CF42" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="CA42" s="16" t="s">
+      <c r="CG42" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="CB42" s="16" t="s">
+      <c r="CH42" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="CC42" s="16" t="s">
+      <c r="CJ42" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="DO42" s="16" t="s">
         <v>362</v>
-      </c>
-      <c r="CD42" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="CE42" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="CF42" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="CG42" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="CH42" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="DO42" s="16" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:119" s="16" customFormat="1">
@@ -4254,226 +4271,229 @@
         <v>29</v>
       </c>
       <c r="M43" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O43" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N43" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="O43" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="P43" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q43" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R43" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="S43" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="Q43" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="R43" s="16" t="s">
+      <c r="T43" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="S43" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="T43" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="U43" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="V43" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="W43" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="V43" s="16" t="s">
+      <c r="X43" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y43" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="W43" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="X43" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y43" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="Z43" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA43" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB43" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="AA43" s="16" t="s">
+      <c r="AC43" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AB43" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC43" s="16" t="s">
-        <v>106</v>
-      </c>
       <c r="AD43" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE43" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF43" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="AE43" s="16" t="s">
+      <c r="AG43" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="AF43" s="16" t="s">
+      <c r="AH43" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="AG43" s="16" t="s">
+      <c r="AI43" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="AH43" s="16" t="s">
+      <c r="AJ43" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="AI43" s="16" t="s">
+      <c r="AK43" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="AJ43" s="16" t="s">
+      <c r="AL43" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="AK43" s="16" t="s">
+      <c r="AM43" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="AL43" s="16" t="s">
+      <c r="AN43" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="AM43" s="16" t="s">
+      <c r="AO43" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="AN43" s="16" t="s">
+      <c r="AP43" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AO43" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP43" s="16" t="s">
-        <v>150</v>
-      </c>
       <c r="AQ43" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR43" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS43" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="AR43" s="16" t="s">
+      <c r="AT43" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="AS43" s="16" t="s">
+      <c r="AU43" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="AT43" s="16" t="s">
+      <c r="AV43" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="AU43" s="16" t="s">
+      <c r="AW43" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="AV43" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="AW43" s="16" t="s">
+      <c r="AX43" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="AY43" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="AX43" s="16" t="s">
+      <c r="AZ43" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA43" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB43" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC43" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD43" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="BE43" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="BF43" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="BG43" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="BH43" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="BI43" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="BJ43" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="BK43" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BL43" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="BM43" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="BN43" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="BO43" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BP43" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BQ43" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="BR43" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="AY43" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="AZ43" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA43" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="BB43" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="BC43" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="BD43" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="BE43" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="BF43" s="16" t="s">
+      <c r="BS43" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="BT43" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="BG43" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="BH43" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="BI43" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="BJ43" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="BK43" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="BL43" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="BM43" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="BN43" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="BO43" s="16" t="s">
+      <c r="BU43" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="BP43" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="BQ43" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="BR43" s="16" t="s">
+      <c r="BV43" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="BS43" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="BT43" s="16" t="s">
+      <c r="BX43" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="BU43" s="16" t="s">
+      <c r="BY43" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="BV43" s="16" t="s">
+      <c r="BZ43" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="BX43" s="16" t="s">
+      <c r="CA43" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="BY43" s="16" t="s">
+      <c r="CB43" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="BZ43" s="16" t="s">
+      <c r="CC43" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="CA43" s="16" t="s">
+      <c r="CD43" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="CB43" s="16" t="s">
+      <c r="CE43" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="CC43" s="16" t="s">
+      <c r="CF43" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="CD43" s="16" t="s">
+      <c r="CG43" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="CH43" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="CJ43" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="DO43" s="16" t="s">
         <v>315</v>
-      </c>
-      <c r="CE43" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="CF43" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="CG43" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="CH43" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="DO43" s="16" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4493,7 +4513,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4555,7 +4575,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
